--- a/Output/profit_loss_grain_price_df.xlsx
+++ b/Output/profit_loss_grain_price_df.xlsx
@@ -495,22 +495,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E2" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F2" t="n">
-        <v>2.93</v>
+        <v>4.88</v>
       </c>
       <c r="G2" t="n">
-        <v>2.93</v>
+        <v>4.88</v>
       </c>
       <c r="H2" t="n">
-        <v>527.8200000000001</v>
+        <v>1152.27</v>
       </c>
       <c r="I2" t="n">
-        <v>527.8200000000001</v>
+        <v>1152.27</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -531,25 +531,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>113.3</v>
+        <v>134.5</v>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F3" t="n">
-        <v>2.94</v>
+        <v>4.89</v>
       </c>
       <c r="G3" t="n">
-        <v>2.93</v>
+        <v>4.88</v>
       </c>
       <c r="H3" t="n">
-        <v>724.02</v>
+        <v>1478.66</v>
       </c>
       <c r="I3" t="n">
-        <v>723.29</v>
+        <v>1478.16</v>
       </c>
       <c r="J3" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -567,25 +567,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>100.9</v>
+        <v>123.9</v>
       </c>
       <c r="E4" t="n">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>4.85</v>
       </c>
       <c r="G4" t="n">
-        <v>2.93</v>
+        <v>4.88</v>
       </c>
       <c r="H4" t="n">
-        <v>333.16</v>
+        <v>827.14</v>
       </c>
       <c r="I4" t="n">
-        <v>332.35</v>
+        <v>826.39</v>
       </c>
       <c r="J4" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -603,22 +603,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="E5" t="n">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F5" t="n">
-        <v>2.53</v>
+        <v>3.98</v>
       </c>
       <c r="G5" t="n">
-        <v>2.53</v>
+        <v>3.98</v>
       </c>
       <c r="H5" t="n">
-        <v>498.95</v>
+        <v>1022.76</v>
       </c>
       <c r="I5" t="n">
-        <v>498.95</v>
+        <v>1022.76</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -639,25 +639,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>90.3</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F6" t="n">
-        <v>2.54</v>
+        <v>3.99</v>
       </c>
       <c r="G6" t="n">
-        <v>2.53</v>
+        <v>3.98</v>
       </c>
       <c r="H6" t="n">
-        <v>683.62</v>
+        <v>1312.79</v>
       </c>
       <c r="I6" t="n">
-        <v>683.12</v>
+        <v>1312.55</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
@@ -675,25 +675,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>84.90000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5</v>
+        <v>3.95</v>
       </c>
       <c r="G7" t="n">
-        <v>2.53</v>
+        <v>3.98</v>
       </c>
       <c r="H7" t="n">
-        <v>315.82</v>
+        <v>733.83</v>
       </c>
       <c r="I7" t="n">
-        <v>314.77</v>
+        <v>732.97</v>
       </c>
       <c r="J7" t="n">
-        <v>1.05</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="8">
@@ -711,22 +711,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>129.2</v>
+        <v>146.9</v>
       </c>
       <c r="E8" t="n">
-        <v>129.2</v>
+        <v>146.9</v>
       </c>
       <c r="F8" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="G8" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="H8" t="n">
-        <v>367.31</v>
+        <v>746.8200000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>367.31</v>
+        <v>746.8200000000001</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -747,25 +747,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>138</v>
+        <v>157.5</v>
       </c>
       <c r="E9" t="n">
-        <v>129.2</v>
+        <v>146.9</v>
       </c>
       <c r="F9" t="n">
-        <v>1.16</v>
+        <v>1.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="H9" t="n">
-        <v>540.74</v>
+        <v>1000.56</v>
       </c>
       <c r="I9" t="n">
-        <v>539.77</v>
+        <v>999.4400000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>0.97</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="10">
@@ -783,25 +783,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>113.3</v>
+        <v>131</v>
       </c>
       <c r="E10" t="n">
-        <v>129.2</v>
+        <v>146.9</v>
       </c>
       <c r="F10" t="n">
-        <v>1.12</v>
+        <v>1.66</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15</v>
+        <v>1.68</v>
       </c>
       <c r="H10" t="n">
-        <v>196.81</v>
+        <v>496.1</v>
       </c>
       <c r="I10" t="n">
-        <v>194.84</v>
+        <v>494.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1.97</v>
+        <v>1.89</v>
       </c>
     </row>
   </sheetData>
